--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="295">
   <si>
     <t>变更履历</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>1、新增检查项KXS-07-02</t>
+  </si>
+  <si>
+    <t>全部检查项、NDS结果数据检查项</t>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>1、修改KXS-03-005为ERROR</t>
   </si>
   <si>
     <t>检查项ID</t>
@@ -913,10 +922,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -970,14 +979,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -985,83 +986,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,8 +1003,91 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,17 +1102,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1157,7 +1166,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1169,7 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,7 +1274,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,37 +1286,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,43 +1304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,31 +1322,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,17 +1375,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,11 +1401,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1424,18 +1425,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,143 +1452,143 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2087,7 +2096,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2250,12 +2259,24 @@
       <c r="A8" s="28">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
+      <c r="B8" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="30">
+        <v>43518</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="28">
@@ -2392,8 +2413,8 @@
   <sheetPr/>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2410,387 +2431,387 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>43</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="24" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="24" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
@@ -2809,20 +2830,20 @@
     </row>
     <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
@@ -2831,20 +2852,20 @@
     </row>
     <row r="22" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A22" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
@@ -2853,20 +2874,20 @@
     </row>
     <row r="23" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A23" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16" t="s">
@@ -2875,20 +2896,20 @@
     </row>
     <row r="24" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
@@ -2897,20 +2918,20 @@
     </row>
     <row r="25" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A25" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
@@ -2919,20 +2940,20 @@
     </row>
     <row r="26" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A26" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="s">
@@ -2941,338 +2962,338 @@
     </row>
     <row r="27" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="15" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A41" s="15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A42" s="15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="24" t="s">
@@ -3285,20 +3306,20 @@
     </row>
     <row r="45" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16" t="s">
@@ -3307,20 +3328,20 @@
     </row>
     <row r="46" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
@@ -3359,20 +3380,20 @@
     </row>
     <row r="50" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A50" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
@@ -3381,20 +3402,20 @@
     </row>
     <row r="51" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
@@ -3403,20 +3424,20 @@
     </row>
     <row r="52" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A52" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
@@ -3425,162 +3446,162 @@
     </row>
     <row r="53" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A53" s="15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A54" s="15" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="15" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A55" s="15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="15" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A57" s="15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A58" s="15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="25" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A59" s="15" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="15" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A60" s="15" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="15" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" customHeight="1" spans="1:8">
@@ -3605,20 +3626,20 @@
     </row>
     <row r="63" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
@@ -3677,20 +3698,20 @@
     </row>
     <row r="69" customHeight="1" spans="1:9">
       <c r="A69" s="15" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="15" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
@@ -3700,20 +3721,20 @@
     </row>
     <row r="70" customHeight="1" spans="1:9">
       <c r="A70" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="15" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
@@ -3856,71 +3877,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="21" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="22" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="22" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3935,7 +3956,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -3952,292 +3973,292 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="20" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4260,7 +4281,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="31" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -4301,55 +4322,55 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4357,23 +4378,23 @@
     </row>
     <row r="3" ht="27" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -4381,47 +4402,47 @@
     </row>
     <row r="4" ht="99" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="27" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -4429,45 +4450,45 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4475,23 +4496,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -4499,23 +4520,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4523,75 +4544,75 @@
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" ht="165" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4599,23 +4620,23 @@
     </row>
     <row r="13" ht="27" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4623,47 +4644,47 @@
     </row>
     <row r="14" ht="58" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4671,21 +4692,21 @@
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4693,21 +4714,21 @@
     </row>
     <row r="17" ht="40.5" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4715,21 +4736,21 @@
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4737,21 +4758,21 @@
     </row>
     <row r="19" ht="27" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4759,21 +4780,21 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4781,21 +4802,21 @@
     </row>
     <row r="21" ht="27" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4803,22 +4824,22 @@
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="299">
   <si>
     <t>变更履历</t>
   </si>
@@ -86,6 +86,12 @@
     <t>1、修改KXS-03-005为ERROR</t>
   </si>
   <si>
+    <t>1、新增检查项KXS-01-019</t>
+  </si>
+  <si>
+    <t>v2.0.6</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -315,6 +321,12 @@
   </si>
   <si>
     <t>DIVIDER的FDNODE与TDNODE应该是实际的首尾点</t>
+  </si>
+  <si>
+    <t>KXS-01-019</t>
+  </si>
+  <si>
+    <t>字段范围检查</t>
   </si>
   <si>
     <t>KXS-03-001</t>
@@ -922,10 +934,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -971,14 +983,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -986,40 +990,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,28 +1027,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1079,7 +1053,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,9 +1067,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,10 +1081,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1172,7 +1184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1196,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,7 +1214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,13 +1244,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,25 +1274,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,49 +1298,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1316,13 +1328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,35 +1363,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1395,15 +1398,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,17 +1428,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1452,149 +1464,149 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,8 +1813,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I81" totalsRowShown="0">
-  <autoFilter ref="A1:I81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I87" totalsRowShown="0">
+  <autoFilter ref="A1:I87"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2095,8 +2107,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2282,12 +2294,24 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="30">
+        <v>43522</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="28">
@@ -2411,10 +2435,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2431,387 +2455,387 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
@@ -2819,603 +2843,577 @@
       </c>
     </row>
     <row r="20" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>100</v>
-      </c>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="24"/>
       <c r="G21" s="16"/>
-      <c r="H21" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>104</v>
-      </c>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>108</v>
-      </c>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>33</v>
-      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>116</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>120</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E27" s="15"/>
+        <v>105</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="F27" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="24" t="s">
-        <v>34</v>
+      <c r="H27" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="15"/>
+        <v>109</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="F28" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="24" t="s">
-        <v>34</v>
+      <c r="H28" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="15"/>
+        <v>113</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="F29" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="24" t="s">
-        <v>34</v>
+      <c r="H29" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="15" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>117</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="F30" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="24" t="s">
-        <v>34</v>
+      <c r="H30" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E31" s="15"/>
+        <v>121</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="F31" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="24" t="s">
-        <v>34</v>
+      <c r="H31" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="15" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="15"/>
+        <v>125</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>126</v>
+      </c>
       <c r="F32" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="24" t="s">
-        <v>34</v>
+      <c r="H32" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="15" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="16" t="s">
-        <v>38</v>
+      <c r="F35" s="25" t="s">
+        <v>35</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="15" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="15" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="15" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A41" s="15" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A42" s="15" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" s="13" customFormat="1" customHeight="1" spans="7:8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A44" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="45" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>177</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="16" t="s">
-        <v>14</v>
+      <c r="H45" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="46" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>181</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A47" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A48" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A49" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A50" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>38</v>
-      </c>
+    <row r="50" s="13" customFormat="1" customHeight="1" spans="7:8">
       <c r="G50" s="16"/>
-      <c r="H50" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
@@ -3424,20 +3422,20 @@
     </row>
     <row r="52" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A52" s="15" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
@@ -3445,236 +3443,260 @@
       </c>
     </row>
     <row r="53" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A53" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>46</v>
-      </c>
+      <c r="A53" s="15"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="16"/>
-      <c r="D53" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="F53" s="16"/>
       <c r="G53" s="16"/>
-      <c r="H53" s="16" t="s">
-        <v>51</v>
-      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A54" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>196</v>
-      </c>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="15" t="s">
-        <v>197</v>
-      </c>
+      <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="F54" s="16"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="16" t="s">
-        <v>198</v>
-      </c>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A55" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>200</v>
-      </c>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="15" t="s">
-        <v>201</v>
-      </c>
+      <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="16" t="s">
-        <v>202</v>
-      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E56" s="15"/>
+        <v>188</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="F56" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>206</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A57" s="15" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="15" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>193</v>
+      </c>
       <c r="F57" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A58" s="15" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E58" s="15"/>
+        <v>196</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F58" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G58" s="16"/>
-      <c r="H58" s="25" t="s">
-        <v>214</v>
+      <c r="H58" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A59" s="15" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="15" t="s">
-        <v>217</v>
+        <v>52</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>218</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A60" s="15" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="15" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>204</v>
+      </c>
       <c r="C61" s="16"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="16" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="62" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>208</v>
+      </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="15" t="s">
+        <v>209</v>
+      </c>
       <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="63" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>226</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="64" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>217</v>
+      </c>
       <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="25" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="65" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="A65" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="66" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>225</v>
+      </c>
       <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="67" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A67" s="15"/>
@@ -3687,16 +3709,16 @@
       <c r="H67" s="16"/>
     </row>
     <row r="68" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:9">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A69" s="15" t="s">
         <v>227</v>
       </c>
@@ -3711,38 +3733,24 @@
         <v>230</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:9">
-      <c r="A70" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>232</v>
-      </c>
+    </row>
+    <row r="70" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>33</v>
-      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
@@ -3752,7 +3760,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -3762,7 +3770,7 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="16"/>
@@ -3772,7 +3780,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
@@ -3782,25 +3790,51 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="C75" s="16"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
+      <c r="D75" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="H75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="C76" s="16"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="17"/>
@@ -3851,6 +3885,66 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3877,71 +3971,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="21" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3973,292 +4067,292 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="20" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4281,7 +4375,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="31" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -4322,55 +4416,55 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4378,23 +4472,23 @@
     </row>
     <row r="3" ht="27" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -4402,47 +4496,47 @@
     </row>
     <row r="4" ht="99" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="27" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -4450,45 +4544,45 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4496,23 +4590,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -4520,23 +4614,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4544,75 +4638,75 @@
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" ht="165" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4620,23 +4714,23 @@
     </row>
     <row r="13" ht="27" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4644,47 +4738,47 @@
     </row>
     <row r="14" ht="58" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4692,21 +4786,21 @@
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4714,21 +4808,21 @@
     </row>
     <row r="17" ht="40.5" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4736,21 +4830,21 @@
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4758,21 +4852,21 @@
     </row>
     <row r="19" ht="27" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4780,21 +4874,21 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4802,21 +4896,21 @@
     </row>
     <row r="21" ht="27" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4824,22 +4918,22 @@
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="300">
   <si>
     <t>变更履历</t>
   </si>
@@ -86,6 +86,12 @@
     <t>1、修改KXS-03-005为ERROR</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-04-003</t>
+  </si>
+  <si>
+    <t>v2.0.6</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -564,6 +570,15 @@
   </si>
   <si>
     <t>[roadid]与[车道组id] 的 [dividerid] 有交叉</t>
+  </si>
+  <si>
+    <t>KXS-04-003</t>
+  </si>
+  <si>
+    <t>道路结点高程检查</t>
+  </si>
+  <si>
+    <t>道路高程突变&gt;±10厘米/米</t>
   </si>
   <si>
     <t>KXS-05-001</t>
@@ -922,10 +937,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -994,32 +1009,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1034,29 +1033,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1077,14 +1084,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1093,9 +1092,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,8 +1106,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,7 +1193,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1190,13 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1208,13 +1253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,31 +1319,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,67 +1331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,24 +1381,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1395,6 +1392,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,6 +1440,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1452,134 +1467,134 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2096,7 +2111,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2282,12 +2297,24 @@
       <c r="A9" s="28">
         <v>7</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
+      <c r="B9" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="30">
+        <v>43528</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
       <c r="A10" s="28">
@@ -2413,8 +2440,8 @@
   <sheetPr/>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2431,387 +2458,387 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="24" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
@@ -2830,20 +2857,20 @@
     </row>
     <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
@@ -2852,20 +2879,20 @@
     </row>
     <row r="22" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A22" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16" t="s">
@@ -2874,20 +2901,20 @@
     </row>
     <row r="23" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A23" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" s="16"/>
       <c r="D23" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16" t="s">
@@ -2896,20 +2923,20 @@
     </row>
     <row r="24" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A24" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C24" s="16"/>
       <c r="D24" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16" t="s">
@@ -2918,20 +2945,20 @@
     </row>
     <row r="25" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A25" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
@@ -2940,20 +2967,20 @@
     </row>
     <row r="26" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A26" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16" t="s">
@@ -2962,338 +2989,338 @@
     </row>
     <row r="27" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G30" s="16"/>
       <c r="H30" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A41" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A42" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="24" t="s">
@@ -3306,20 +3333,20 @@
     </row>
     <row r="45" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="16" t="s">
@@ -3328,20 +3355,20 @@
     </row>
     <row r="46" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="s">
@@ -3349,14 +3376,24 @@
       </c>
     </row>
     <row r="47" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
+      <c r="A47" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="C47" s="16"/>
-      <c r="D47" s="15"/>
+      <c r="D47" s="15" t="s">
+        <v>186</v>
+      </c>
       <c r="E47" s="15"/>
-      <c r="F47" s="16"/>
+      <c r="F47" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="H47" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A48" s="15"/>
@@ -3380,20 +3417,20 @@
     </row>
     <row r="50" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A50" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C50" s="16"/>
       <c r="D50" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G50" s="16"/>
       <c r="H50" s="16" t="s">
@@ -3402,20 +3439,20 @@
     </row>
     <row r="51" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="15" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
@@ -3424,20 +3461,20 @@
     </row>
     <row r="52" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A52" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
@@ -3446,162 +3483,162 @@
     </row>
     <row r="53" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A53" s="15" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A54" s="15" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C54" s="16"/>
       <c r="D54" s="15" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G54" s="16"/>
       <c r="H54" s="16" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="55" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A55" s="15" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C55" s="16"/>
       <c r="D55" s="15" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E55" s="15"/>
       <c r="F55" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="15" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A57" s="15" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A58" s="15" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G58" s="16"/>
       <c r="H58" s="25" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A59" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="15" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A60" s="15" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="15" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" customHeight="1" spans="1:8">
@@ -3626,20 +3663,20 @@
     </row>
     <row r="63" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F63" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
@@ -3698,20 +3735,20 @@
     </row>
     <row r="69" customHeight="1" spans="1:9">
       <c r="A69" s="15" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="15" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
@@ -3721,20 +3758,20 @@
     </row>
     <row r="70" customHeight="1" spans="1:9">
       <c r="A70" s="15" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="15" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70" s="16"/>
       <c r="H70" s="16" t="s">
@@ -3877,71 +3914,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="21" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="22" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="22" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -3973,292 +4010,292 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="20" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4281,7 +4318,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="31" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -4322,55 +4359,55 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4378,23 +4415,23 @@
     </row>
     <row r="3" ht="27" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -4402,47 +4439,47 @@
     </row>
     <row r="4" ht="99" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="27" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -4450,45 +4487,45 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4496,23 +4533,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -4520,23 +4557,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4544,75 +4581,75 @@
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" ht="165" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4620,23 +4657,23 @@
     </row>
     <row r="13" ht="27" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4644,47 +4681,47 @@
     </row>
     <row r="14" ht="58" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4692,21 +4729,21 @@
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4714,21 +4751,21 @@
     </row>
     <row r="17" ht="40.5" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4736,21 +4773,21 @@
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4758,21 +4795,21 @@
     </row>
     <row r="19" ht="27" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4780,21 +4817,21 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4802,21 +4839,21 @@
     </row>
     <row r="21" ht="27" spans="1:10">
       <c r="A21" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4824,22 +4861,22 @@
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="300">
   <si>
     <t>变更履历</t>
   </si>
@@ -86,7 +86,7 @@
     <t>1、修改KXS-03-005为ERROR</t>
   </si>
   <si>
-    <t>1、新增检查项KXS-01-019</t>
+    <t>1、添加检查项KXS-04-003</t>
   </si>
   <si>
     <t>v2.0.6</t>
@@ -323,12 +323,6 @@
     <t>DIVIDER的FDNODE与TDNODE应该是实际的首尾点</t>
   </si>
   <si>
-    <t>KXS-01-019</t>
-  </si>
-  <si>
-    <t>字段范围检查</t>
-  </si>
-  <si>
     <t>KXS-03-001</t>
   </si>
   <si>
@@ -578,6 +572,15 @@
     <t>[roadid]与[车道组id] 的 [dividerid] 有交叉</t>
   </si>
   <si>
+    <t>KXS-04-003</t>
+  </si>
+  <si>
+    <t>道路结点高程检查</t>
+  </si>
+  <si>
+    <t>道路高程突变&gt;±10厘米/米</t>
+  </si>
+  <si>
     <t>KXS-05-001</t>
   </si>
   <si>
@@ -645,9 +648,6 @@
   </si>
   <si>
     <t>车道两个边线通行方向不应该冲突</t>
-  </si>
-  <si>
-    <t>车道左右边线的通行方向（矢量化方向+车道线方向）冲突</t>
   </si>
   <si>
     <t>JH_C_16</t>
@@ -881,6 +881,9 @@
   <si>
     <t>车道的4个夹角最好的状态都是90°的，但是由于批量打断的情况可能出现部分偏差
 --求左右divider构成的四个角点角度</t>
+  </si>
+  <si>
+    <t>车道左右边线的通行方向（矢量化方向+车道线方向）冲突</t>
   </si>
   <si>
     <t>LaneAttribCheck</t>
@@ -935,8 +938,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -983,10 +986,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1004,19 +1046,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1027,15 +1069,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1046,14 +1079,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1082,24 +1107,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1112,18 +1123,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1184,7 +1187,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,13 +1217,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,13 +1229,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,7 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,13 +1265,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,7 +1319,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1286,55 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,26 +1366,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,6 +1392,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,30 +1440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1460,153 +1448,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1813,8 +1816,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I87" totalsRowShown="0">
-  <autoFilter ref="A1:I87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I81" totalsRowShown="0">
+  <autoFilter ref="A1:I81"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2107,8 +2110,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2304,7 +2307,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="30">
-        <v>43522</v>
+        <v>43528</v>
       </c>
       <c r="F9" s="28" t="s">
         <v>23</v>
@@ -2435,10 +2438,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2843,231 +2846,281 @@
       </c>
     </row>
     <row r="20" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B21" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="24" t="s">
+      <c r="C21" s="16"/>
+      <c r="D21" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="s">
+      <c r="G21" s="16"/>
+      <c r="H21" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
     <row r="22" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
+      <c r="A22" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="C22" s="16"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="23" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
+      <c r="A23" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="C23" s="16"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="C24" s="16"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="24"/>
+      <c r="D24" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>118</v>
+      </c>
       <c r="C25" s="16"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="24"/>
+      <c r="D25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="26" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>122</v>
+      </c>
       <c r="C26" s="16"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
+      <c r="D26" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>106</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="E27" s="15"/>
       <c r="F27" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="16" t="s">
-        <v>14</v>
+      <c r="H27" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>110</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="E28" s="15"/>
       <c r="F28" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="16" t="s">
-        <v>14</v>
+      <c r="H28" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>114</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="E29" s="15"/>
       <c r="F29" s="25" t="s">
         <v>35</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="16" t="s">
-        <v>14</v>
+      <c r="H29" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="15" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>118</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="E30" s="15"/>
       <c r="F30" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="16" t="s">
-        <v>14</v>
+      <c r="H30" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>122</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="E31" s="15"/>
       <c r="F31" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="16" t="s">
-        <v>14</v>
+      <c r="H31" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="15" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>126</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="16" t="s">
-        <v>14</v>
+      <c r="H32" s="24" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="24" t="s">
@@ -3076,18 +3129,18 @@
     </row>
     <row r="34" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="24" t="s">
@@ -3096,18 +3149,18 @@
     </row>
     <row r="35" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="15" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="25" t="s">
-        <v>35</v>
+      <c r="F35" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="24" t="s">
@@ -3116,14 +3169,14 @@
     </row>
     <row r="36" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="15" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
@@ -3136,14 +3189,14 @@
     </row>
     <row r="37" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="15" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16" t="s">
@@ -3156,14 +3209,14 @@
     </row>
     <row r="38" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16" t="s">
@@ -3176,18 +3229,18 @@
     </row>
     <row r="39" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="15" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="24" t="s">
@@ -3196,18 +3249,18 @@
     </row>
     <row r="40" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="24" t="s">
@@ -3216,14 +3269,14 @@
     </row>
     <row r="41" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A41" s="15" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
@@ -3236,14 +3289,14 @@
     </row>
     <row r="42" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A42" s="15" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
@@ -3256,14 +3309,14 @@
     </row>
     <row r="43" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
@@ -3271,149 +3324,135 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A44" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="16" t="s">
-        <v>40</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="1" customHeight="1" spans="7:8">
       <c r="G44" s="16"/>
-      <c r="H44" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="15"/>
+        <v>178</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="F45" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="24" t="s">
-        <v>36</v>
+      <c r="H45" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="E46" s="15"/>
+        <v>182</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>183</v>
+      </c>
       <c r="F46" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="24" t="s">
-        <v>36</v>
+      <c r="H46" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A47" s="15" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="15" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A48" s="15"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A49" s="15"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A50" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="16"/>
+      <c r="D50" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G47" s="16"/>
-      <c r="H47" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A48" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G48" s="16"/>
-      <c r="H48" s="24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A49" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G49" s="16"/>
-      <c r="H49" s="24" t="s">
+      <c r="G50" s="16"/>
+      <c r="H50" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" s="13" customFormat="1" customHeight="1" spans="7:8">
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
     </row>
     <row r="51" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="15" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
@@ -3422,17 +3461,17 @@
     </row>
     <row r="52" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A52" s="15" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="15" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F52" s="16" t="s">
         <v>40</v>
@@ -3443,111 +3482,133 @@
       </c>
     </row>
     <row r="53" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="C53" s="16"/>
-      <c r="D53" s="15"/>
+      <c r="D53" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="E53" s="15"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="H53" s="16" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="54" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>201</v>
+      </c>
       <c r="C54" s="16"/>
-      <c r="D54" s="15"/>
+      <c r="D54" s="15" t="s">
+        <v>202</v>
+      </c>
       <c r="E54" s="15"/>
-      <c r="F54" s="16"/>
+      <c r="F54" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="H54" s="16" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="55" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="C55" s="16"/>
-      <c r="D55" s="15"/>
+      <c r="D55" s="15" t="s">
+        <v>206</v>
+      </c>
       <c r="E55" s="15"/>
-      <c r="F55" s="16"/>
+      <c r="F55" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="H55" s="16" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="56" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="C56" s="16"/>
-      <c r="D56" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="15"/>
       <c r="F56" s="16" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A57" s="15" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>193</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="E57" s="15"/>
       <c r="F57" s="16" t="s">
         <v>35</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A58" s="15" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>197</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="E58" s="15"/>
       <c r="F58" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G58" s="16"/>
-      <c r="H58" s="16" t="s">
-        <v>14</v>
+      <c r="H58" s="25" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A59" s="15" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="15" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
@@ -3555,19 +3616,19 @@
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>53</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A60" s="15" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="15" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
@@ -3575,128 +3636,80 @@
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A61" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>204</v>
-      </c>
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
       <c r="C61" s="16"/>
-      <c r="D61" s="15" t="s">
-        <v>205</v>
-      </c>
+      <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="F61" s="16"/>
       <c r="G61" s="16"/>
-      <c r="H61" s="16" t="s">
-        <v>206</v>
-      </c>
+      <c r="H61" s="16"/>
     </row>
     <row r="62" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A62" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>208</v>
-      </c>
+      <c r="A62" s="15"/>
+      <c r="B62" s="15"/>
       <c r="C62" s="16"/>
-      <c r="D62" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="F62" s="16"/>
       <c r="G62" s="16"/>
-      <c r="H62" s="16" t="s">
-        <v>210</v>
-      </c>
+      <c r="H62" s="16"/>
     </row>
     <row r="63" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="15"/>
+        <v>229</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>230</v>
+      </c>
       <c r="F63" s="16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A64" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>216</v>
-      </c>
+      <c r="A64" s="15"/>
+      <c r="B64" s="15"/>
       <c r="C64" s="16"/>
-      <c r="D64" s="15" t="s">
-        <v>217</v>
-      </c>
+      <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="F64" s="16"/>
       <c r="G64" s="16"/>
-      <c r="H64" s="25" t="s">
-        <v>218</v>
-      </c>
+      <c r="H64" s="16"/>
     </row>
     <row r="65" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A65" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B65" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16" t="s">
-        <v>222</v>
-      </c>
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
     </row>
     <row r="66" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A66" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="B66" s="15" t="s">
-        <v>224</v>
-      </c>
+      <c r="A66" s="15"/>
+      <c r="B66" s="15"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="15" t="s">
-        <v>225</v>
-      </c>
+      <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="F66" s="16"/>
       <c r="G66" s="16"/>
-      <c r="H66" s="16" t="s">
-        <v>226</v>
-      </c>
+      <c r="H66" s="16"/>
     </row>
     <row r="67" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A67" s="15"/>
@@ -3709,48 +3722,62 @@
       <c r="H67" s="16"/>
     </row>
     <row r="68" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A68" s="15"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:9">
       <c r="A69" s="15" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="15" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
+      <c r="I69" s="13"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:9">
+      <c r="A70" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="C70" s="16"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="16"/>
+      <c r="D70" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-    </row>
-    <row r="71" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="H70" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="13"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
@@ -3760,7 +3787,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" s="13" customFormat="1" customHeight="1" spans="1:8">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -3770,7 +3797,7 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" s="13" customFormat="1" customHeight="1" spans="1:8">
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="16"/>
@@ -3780,7 +3807,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" s="13" customFormat="1" customHeight="1" spans="1:8">
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
@@ -3790,51 +3817,25 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" customHeight="1" spans="1:9">
-      <c r="A75" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>232</v>
-      </c>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="15"/>
+      <c r="B75" s="15"/>
       <c r="C75" s="16"/>
-      <c r="D75" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E75" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="16"/>
       <c r="G75" s="16"/>
-      <c r="H75" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" s="13"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:9">
-      <c r="A76" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B76" s="15" t="s">
-        <v>236</v>
-      </c>
+      <c r="H75" s="16"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="15"/>
+      <c r="B76" s="15"/>
       <c r="C76" s="16"/>
-      <c r="D76" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E76" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="16"/>
       <c r="G76" s="16"/>
-      <c r="H76" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" s="13"/>
+      <c r="H76" s="16"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="17"/>
@@ -3885,66 +3886,6 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
-    </row>
-    <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="15"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-    </row>
-    <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="15"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:8">
-      <c r="A85" s="15"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="15"/>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4093,17 +4034,17 @@
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F2" s="16" t="s">
         <v>35</v>
@@ -4115,17 +4056,17 @@
     </row>
     <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>40</v>
@@ -4137,17 +4078,17 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>35</v>
@@ -4159,17 +4100,17 @@
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F5" s="16" t="s">
         <v>40</v>
@@ -4181,17 +4122,17 @@
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>40</v>
@@ -4203,17 +4144,17 @@
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="16" t="s">
         <v>40</v>
@@ -4225,17 +4166,17 @@
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>40</v>
@@ -4247,17 +4188,17 @@
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>40</v>
@@ -4269,17 +4210,17 @@
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>40</v>
@@ -4291,17 +4232,17 @@
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>35</v>
@@ -4313,17 +4254,17 @@
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>40</v>
@@ -4764,21 +4705,21 @@
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>283</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>284</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4786,14 +4727,14 @@
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>283</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>284</v>
@@ -4815,14 +4756,14 @@
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>209</v>
+        <v>286</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4844,7 +4785,7 @@
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4855,18 +4796,18 @@
         <v>218</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
         <v>217</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4874,21 +4815,21 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4896,21 +4837,21 @@
     </row>
     <row r="21" ht="27" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4921,7 +4862,7 @@
         <v>226</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
@@ -4930,7 +4871,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>224</v>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="307">
   <si>
     <t>变更履历</t>
   </si>
@@ -86,10 +86,16 @@
     <t>1、修改KXS-03-005为ERROR</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-01-019</t>
+  </si>
+  <si>
+    <t>v2.0.6</t>
+  </si>
+  <si>
     <t>1、添加检查项KXS-04-003</t>
   </si>
   <si>
-    <t>v2.0.6</t>
+    <t>1、添加检查项KXS-01-020</t>
   </si>
   <si>
     <t>检查项ID</t>
@@ -321,6 +327,21 @@
   </si>
   <si>
     <t>DIVIDER的FDNODE与TDNODE应该是实际的首尾点</t>
+  </si>
+  <si>
+    <t>KXS-01-019</t>
+  </si>
+  <si>
+    <t>字段范围检查</t>
+  </si>
+  <si>
+    <t>KXS-01-020</t>
+  </si>
+  <si>
+    <t>数据文件完整性检查</t>
+  </si>
+  <si>
+    <t>缺少数据文件，或者数据为空</t>
   </si>
   <si>
     <t>KXS-03-001</t>
@@ -1816,8 +1837,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I81" totalsRowShown="0">
-  <autoFilter ref="A1:I81"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I87" totalsRowShown="0">
+  <autoFilter ref="A1:I87"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2110,8 +2131,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2320,23 +2341,47 @@
       <c r="A10" s="28">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="30">
+        <v>43529</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
       <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="B11" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="30">
+        <v>43530</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
       <c r="A12" s="28">
@@ -2438,10 +2483,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2458,387 +2503,387 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" customHeight="1" spans="1:9">
       <c r="A1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="15"/>
       <c r="F2" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E3" s="15"/>
       <c r="F3" s="24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A14" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="16"/>
       <c r="D14" s="15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="15" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="16"/>
       <c r="D17" s="15" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A18" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16" t="s">
@@ -2846,31 +2891,39 @@
       </c>
     </row>
     <row r="20" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="C20" s="16"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="15" t="s">
+        <v>104</v>
+      </c>
       <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
+      <c r="F20" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A21" s="15" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C21" s="16"/>
       <c r="D21" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="E21" s="15"/>
       <c r="F21" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16" t="s">
@@ -2878,581 +2931,547 @@
       </c>
     </row>
     <row r="22" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A22" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>106</v>
-      </c>
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="24"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A23" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>110</v>
-      </c>
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>35</v>
-      </c>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="24"/>
       <c r="G23" s="16"/>
-      <c r="H23" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A24" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>114</v>
-      </c>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="24"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A25" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>118</v>
-      </c>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="24"/>
       <c r="G25" s="16"/>
-      <c r="H25" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A26" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>122</v>
-      </c>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="16"/>
-      <c r="H26" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A27" s="15" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>111</v>
+      </c>
       <c r="F27" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G27" s="16"/>
-      <c r="H27" s="24" t="s">
-        <v>36</v>
+      <c r="H27" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="28" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A28" s="15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="15"/>
+        <v>114</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="F28" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G28" s="16"/>
-      <c r="H28" s="24" t="s">
-        <v>36</v>
+      <c r="H28" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="29" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A29" s="15" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="E29" s="15"/>
+        <v>118</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>119</v>
+      </c>
       <c r="F29" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G29" s="16"/>
-      <c r="H29" s="24" t="s">
-        <v>36</v>
+      <c r="H29" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A30" s="15" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E30" s="15"/>
+        <v>122</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="F30" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G30" s="16"/>
-      <c r="H30" s="24" t="s">
-        <v>36</v>
+      <c r="H30" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="31" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A31" s="15" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="15"/>
+        <v>126</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>127</v>
+      </c>
       <c r="F31" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G31" s="16"/>
-      <c r="H31" s="24" t="s">
-        <v>36</v>
+      <c r="H31" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="32" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A32" s="15" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E32" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>131</v>
+      </c>
       <c r="F32" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="16"/>
-      <c r="H32" s="24" t="s">
-        <v>36</v>
+      <c r="H32" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="33" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A33" s="15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E33" s="15"/>
       <c r="F33" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A34" s="15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C34" s="16"/>
       <c r="D34" s="15" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A35" s="15" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C35" s="16"/>
       <c r="D35" s="15" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="16" t="s">
-        <v>40</v>
+      <c r="F35" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A36" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A37" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="15" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A38" s="15" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A39" s="15" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="15" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A40" s="15" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" s="15" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A41" s="15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="15" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A42" s="15" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="15" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A43" s="15" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="15" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" s="13" customFormat="1" customHeight="1" spans="7:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A44" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="16"/>
+      <c r="D44" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
+      <c r="H44" s="24" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="45" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A45" s="15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C45" s="16"/>
       <c r="D45" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>179</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="E45" s="15"/>
       <c r="F45" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G45" s="16"/>
-      <c r="H45" s="16" t="s">
-        <v>14</v>
+      <c r="H45" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="46" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A46" s="15" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C46" s="16"/>
       <c r="D46" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="E46" s="15"/>
       <c r="F46" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G46" s="16"/>
-      <c r="H46" s="16" t="s">
-        <v>14</v>
+      <c r="H46" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="47" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A47" s="15" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C47" s="16"/>
       <c r="D47" s="15" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G47" s="16"/>
-      <c r="H47" s="16" t="s">
+      <c r="H47" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A48" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A49" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="16"/>
+      <c r="D49" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A50" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F50" s="16" t="s">
-        <v>40</v>
-      </c>
+    <row r="50" s="13" customFormat="1" customHeight="1" spans="7:8">
       <c r="G50" s="16"/>
-      <c r="H50" s="16" t="s">
-        <v>14</v>
-      </c>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A51" s="15" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C51" s="16"/>
       <c r="D51" s="15" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="16" t="s">
@@ -3461,20 +3480,20 @@
     </row>
     <row r="52" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A52" s="15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C52" s="16"/>
       <c r="D52" s="15" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F52" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G52" s="16"/>
       <c r="H52" s="16" t="s">
@@ -3483,233 +3502,267 @@
     </row>
     <row r="53" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A53" s="15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C53" s="16"/>
       <c r="D53" s="15" t="s">
-        <v>52</v>
+        <v>193</v>
       </c>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A54" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>201</v>
-      </c>
+      <c r="A54" s="15"/>
+      <c r="B54" s="15"/>
       <c r="C54" s="16"/>
-      <c r="D54" s="15" t="s">
-        <v>202</v>
-      </c>
+      <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="16" t="s">
-        <v>40</v>
-      </c>
+      <c r="F54" s="16"/>
       <c r="G54" s="16"/>
-      <c r="H54" s="16" t="s">
-        <v>203</v>
-      </c>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A55" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>205</v>
-      </c>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
       <c r="C55" s="16"/>
-      <c r="D55" s="15" t="s">
-        <v>206</v>
-      </c>
+      <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="F55" s="16"/>
       <c r="G55" s="16"/>
-      <c r="H55" s="16" t="s">
-        <v>207</v>
-      </c>
+      <c r="H55" s="16"/>
     </row>
     <row r="56" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A56" s="15" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>197</v>
+      </c>
       <c r="F56" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16" t="s">
-        <v>210</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A57" s="15" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C57" s="16"/>
       <c r="D57" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="E57" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>201</v>
+      </c>
       <c r="F57" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16" t="s">
-        <v>214</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A58" s="15" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C58" s="16"/>
       <c r="D58" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="E58" s="15"/>
+        <v>204</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>205</v>
+      </c>
       <c r="F58" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G58" s="16"/>
-      <c r="H58" s="25" t="s">
-        <v>218</v>
+      <c r="H58" s="16" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A59" s="15" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="15" t="s">
-        <v>221</v>
+        <v>54</v>
       </c>
       <c r="E59" s="15"/>
       <c r="F59" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="16" t="s">
-        <v>222</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A60" s="15" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="15" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G60" s="16"/>
       <c r="H60" s="16" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
+      <c r="A61" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>212</v>
+      </c>
       <c r="C61" s="16"/>
-      <c r="D61" s="15"/>
+      <c r="D61" s="15" t="s">
+        <v>213</v>
+      </c>
       <c r="E61" s="15"/>
-      <c r="F61" s="16"/>
+      <c r="F61" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="H61" s="16" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="62" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A62" s="15"/>
-      <c r="B62" s="15"/>
+      <c r="A62" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>216</v>
+      </c>
       <c r="C62" s="16"/>
-      <c r="D62" s="15"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="16"/>
+      <c r="F62" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="H62" s="16" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="63" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A63" s="15" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>230</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="E63" s="15"/>
       <c r="F63" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="16" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A64" s="15"/>
-      <c r="B64" s="15"/>
+      <c r="A64" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>223</v>
+      </c>
       <c r="C64" s="16"/>
-      <c r="D64" s="15"/>
+      <c r="D64" s="15" t="s">
+        <v>224</v>
+      </c>
       <c r="E64" s="15"/>
-      <c r="F64" s="16"/>
+      <c r="F64" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="H64" s="25" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="65" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="A65" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="16"/>
+      <c r="D65" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E65" s="15"/>
+      <c r="F65" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="66" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A66" s="15"/>
-      <c r="B66" s="15"/>
+      <c r="A66" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>231</v>
+      </c>
       <c r="C66" s="16"/>
-      <c r="D66" s="15"/>
+      <c r="D66" s="15" t="s">
+        <v>232</v>
+      </c>
       <c r="E66" s="15"/>
-      <c r="F66" s="16"/>
+      <c r="F66" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="H66" s="16" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="67" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A67" s="15"/>
@@ -3722,62 +3775,48 @@
       <c r="H67" s="16"/>
     </row>
     <row r="68" s="13" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:9">
+      <c r="A68" s="15"/>
+      <c r="B68" s="15"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A69" s="15" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C69" s="16"/>
       <c r="D69" s="15" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="13"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:9">
-      <c r="A70" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>236</v>
-      </c>
+    </row>
+    <row r="70" s="13" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
       <c r="C70" s="16"/>
-      <c r="D70" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E70" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="16"/>
       <c r="G70" s="16"/>
-      <c r="H70" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="13"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
+      <c r="H70" s="16"/>
+    </row>
+    <row r="71" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="18"/>
@@ -3787,7 +3826,7 @@
       <c r="G71" s="18"/>
       <c r="H71" s="18"/>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="16"/>
@@ -3797,7 +3836,7 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="16"/>
@@ -3807,7 +3846,7 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" s="13" customFormat="1" customHeight="1" spans="1:8">
       <c r="A74" s="17"/>
       <c r="B74" s="17"/>
       <c r="C74" s="18"/>
@@ -3817,25 +3856,51 @@
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+    <row r="75" customHeight="1" spans="1:9">
+      <c r="A75" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>239</v>
+      </c>
       <c r="C75" s="16"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="16"/>
+      <c r="D75" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="H75" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="13"/>
+    </row>
+    <row r="76" customHeight="1" spans="1:9">
+      <c r="A76" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>243</v>
+      </c>
       <c r="C76" s="16"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="16"/>
+      <c r="D76" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
+      <c r="H76" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="13"/>
     </row>
     <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="17"/>
@@ -3886,6 +3951,66 @@
       <c r="F81" s="16"/>
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="15"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="15"/>
+      <c r="B84" s="15"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="15"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="15"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3912,71 +4037,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="21" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="22" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="22" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="22" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="22" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="22" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="22" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="22" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4008,292 +4133,292 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" ht="28.5" spans="1:8">
       <c r="A2" s="15" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="15" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:8">
       <c r="A3" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="15" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="15" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="15" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="15" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="15" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="15" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="15" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" ht="28.5" spans="1:8">
       <c r="A8" s="15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="15" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" ht="38" customHeight="1" spans="1:8">
       <c r="A9" s="15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="15" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" ht="28.5" spans="1:8">
       <c r="A10" s="15" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="15" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" ht="28.5" spans="1:8">
       <c r="A11" s="15" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="15" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" ht="28.5" spans="1:8">
       <c r="A12" s="15" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="15" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="20" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="15" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="13" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4316,7 +4441,7 @@
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="31" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="2:3">
@@ -4357,55 +4482,55 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F2" s="4">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -4413,23 +4538,23 @@
     </row>
     <row r="3" ht="27" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -4437,47 +4562,47 @@
     </row>
     <row r="4" ht="99" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
     </row>
     <row r="5" ht="27" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -4485,45 +4610,45 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" ht="68" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -4531,23 +4656,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -4555,23 +4680,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F9" s="4">
         <v>1</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -4579,75 +4704,75 @@
     </row>
     <row r="10" ht="29" customHeight="1" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" ht="165" customHeight="1" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F12" s="4">
         <v>1</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -4655,23 +4780,23 @@
     </row>
     <row r="13" ht="27" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -4679,47 +4804,47 @@
     </row>
     <row r="14" ht="58" customHeight="1" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -4727,21 +4852,21 @@
     </row>
     <row r="16" ht="66" customHeight="1" spans="1:10">
       <c r="A16" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -4749,21 +4874,21 @@
     </row>
     <row r="17" ht="40.5" spans="1:10">
       <c r="A17" s="8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -4771,21 +4896,21 @@
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:10">
       <c r="A18" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -4793,21 +4918,21 @@
     </row>
     <row r="19" ht="27" spans="1:10">
       <c r="A19" s="8" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -4815,21 +4940,21 @@
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:10">
       <c r="A20" s="8" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -4837,21 +4962,21 @@
     </row>
     <row r="21" ht="27" spans="1:10">
       <c r="A21" s="8" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -4859,22 +4984,22 @@
     </row>
     <row r="22" ht="47" customHeight="1" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -2131,8 +2131,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="30">
-        <v>43530</v>
+        <v>43529</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>23</v>
@@ -2485,7 +2485,7 @@
   <sheetPr/>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="274">
   <si>
     <t>变更履历</t>
   </si>
@@ -96,6 +96,15 @@
     <t>1、添加检查项KXS-01-020</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-01-021</t>
+  </si>
+  <si>
+    <t>v2.0.7</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-01-022</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -346,6 +355,27 @@
   </si>
   <si>
     <t>缺少数据文件，或者数据为空</t>
+  </si>
+  <si>
+    <t>KXS-01-021</t>
+  </si>
+  <si>
+    <t>数据有效性检查</t>
+  </si>
+  <si>
+    <t>道路拓扑的连接结点应该包含在ROADNODE数据中</t>
+  </si>
+  <si>
+    <t>FileName:[NODECONN] node_id:[node_id]</t>
+  </si>
+  <si>
+    <t>KXS-01-022</t>
+  </si>
+  <si>
+    <t>道路拓扑的进入道路与连接结点应该是唯一的,双向道路除外</t>
+  </si>
+  <si>
+    <t>eroad_id:[eroad_id],node_id:[node_id]</t>
   </si>
   <si>
     <t>KXS-03-001</t>
@@ -815,10 +845,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -844,6 +874,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -851,8 +889,79 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -867,30 +976,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,24 +990,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,55 +1011,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1027,13 +1057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,67 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,37 +1117,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1177,19 +1207,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,6 +1250,80 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1241,227 +1345,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1568,8 +1598,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I60" totalsRowShown="0">
-  <autoFilter ref="A1:I60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I62" totalsRowShown="0">
+  <autoFilter ref="A1:I62"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -1846,7 +1876,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2101,23 +2131,47 @@
       <c r="A12" s="11">
         <v>10</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43546</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="B13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="13">
+        <v>43546</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
       <c r="A14" s="11">
@@ -2197,10 +2251,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2218,1437 +2272,1465 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>51</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>114</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>115</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>138</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="F28" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G28" s="7"/>
-      <c r="H28" s="8" t="s">
-        <v>38</v>
+      <c r="H28" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="F29" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G29" s="7"/>
-      <c r="H29" s="8" t="s">
-        <v>38</v>
+      <c r="H29" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>188</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G45" s="7"/>
-      <c r="H45" s="7" t="s">
-        <v>14</v>
+      <c r="H45" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>192</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G46" s="7"/>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="F47" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>203</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="6"/>
+        <v>212</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>213</v>
+      </c>
       <c r="F51" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="6"/>
+        <v>216</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>217</v>
+      </c>
       <c r="F52" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="6" t="s">
-        <v>225</v>
-      </c>
+      <c r="D55" s="7"/>
       <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>238</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>242</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
+      <c r="A61" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
+      <c r="A62" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63"/>
@@ -3781,6 +3863,28 @@
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74"/>
+    </row>
+    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A75"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A76"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3796,7 +3900,7 @@
   <sheetPr/>
   <dimension ref="B5:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -3807,71 +3911,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
   <si>
     <t>变更履历</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>KXS-01-022</t>
+  </si>
+  <si>
+    <t>道路拓扑的数据检查</t>
   </si>
   <si>
     <t>道路拓扑的进入道路与连接结点应该是唯一的,双向道路除外</t>
@@ -882,32 +885,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -943,9 +923,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -953,7 +932,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,14 +962,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,8 +983,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,9 +999,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1039,13 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,7 +1054,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,25 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1168,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,73 +1216,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,26 +1251,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1283,6 +1266,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1294,30 +1286,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1345,147 +1313,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2254,7 +2257,7 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2789,14 +2792,14 @@
         <v>117</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>46</v>
@@ -2811,17 +2814,17 @@
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>40</v>
@@ -2836,17 +2839,17 @@
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
@@ -2861,17 +2864,17 @@
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>40</v>
@@ -2886,17 +2889,17 @@
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>46</v>
@@ -2911,17 +2914,17 @@
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>46</v>
@@ -2936,17 +2939,17 @@
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>46</v>
@@ -2961,14 +2964,14 @@
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="s">
@@ -2984,14 +2987,14 @@
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
@@ -3007,14 +3010,14 @@
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
@@ -3030,14 +3033,14 @@
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
@@ -3053,14 +3056,14 @@
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
@@ -3076,14 +3079,14 @@
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
@@ -3099,14 +3102,14 @@
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
@@ -3122,14 +3125,14 @@
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
@@ -3145,14 +3148,14 @@
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
@@ -3168,14 +3171,14 @@
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
@@ -3191,14 +3194,14 @@
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
@@ -3214,14 +3217,14 @@
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
@@ -3237,14 +3240,14 @@
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
@@ -3260,14 +3263,14 @@
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
@@ -3283,14 +3286,14 @@
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
@@ -3306,14 +3309,14 @@
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
@@ -3329,14 +3332,14 @@
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
@@ -3352,17 +3355,17 @@
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>46</v>
@@ -3377,17 +3380,17 @@
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>46</v>
@@ -3402,14 +3405,14 @@
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
@@ -3425,17 +3428,17 @@
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>46</v>
@@ -3450,17 +3453,17 @@
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>40</v>
@@ -3475,17 +3478,17 @@
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>46</v>
@@ -3500,14 +3503,14 @@
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
@@ -3515,7 +3518,7 @@
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>68</v>
@@ -3523,14 +3526,14 @@
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
@@ -3538,7 +3541,7 @@
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I54" s="7" t="s">
         <v>42</v>
@@ -3546,10 +3549,10 @@
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -3559,7 +3562,7 @@
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>42</v>
@@ -3567,14 +3570,14 @@
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
@@ -3582,7 +3585,7 @@
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I56" s="7" t="s">
         <v>68</v>
@@ -3590,14 +3593,14 @@
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
@@ -3605,7 +3608,7 @@
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I57" s="7" t="s">
         <v>68</v>
@@ -3613,14 +3616,14 @@
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
@@ -3628,7 +3631,7 @@
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I58" s="7" t="s">
         <v>42</v>
@@ -3636,14 +3639,14 @@
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
@@ -3651,7 +3654,7 @@
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="I59" s="7" t="s">
         <v>42</v>
@@ -3659,17 +3662,17 @@
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>46</v>
@@ -3684,17 +3687,17 @@
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>40</v>
@@ -3709,17 +3712,17 @@
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>40</v>
@@ -3911,71 +3914,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="283">
   <si>
     <t>变更履历</t>
   </si>
@@ -105,6 +105,12 @@
     <t>1、添加检查项KXS-01-022</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-04-004</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-04-005</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -637,6 +643,24 @@
   </si>
   <si>
     <t>道路高程突变&gt;±10厘米/米</t>
+  </si>
+  <si>
+    <t>KXS-04-004</t>
+  </si>
+  <si>
+    <t>Road的起点终点检查</t>
+  </si>
+  <si>
+    <t>Road起点和终点是否关联正确的Road_NODE</t>
+  </si>
+  <si>
+    <t>KXS-04-005</t>
+  </si>
+  <si>
+    <t>道路RANGE索引号检查</t>
+  </si>
+  <si>
+    <t>道路RANGE索引号超限,最大号超限，最小号非０</t>
   </si>
   <si>
     <t>KXS-05-001</t>
@@ -848,10 +872,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -885,6 +909,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -897,14 +928,6 @@
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -923,8 +946,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,67 +970,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1014,10 +985,63 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1042,7 +1066,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,7 +1090,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,13 +1120,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,25 +1144,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,7 +1168,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,37 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,55 +1234,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1275,6 +1299,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1286,15 +1321,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1316,11 +1342,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1339,156 +1372,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1601,8 +1625,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I62" totalsRowShown="0">
-  <autoFilter ref="A1:I62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I64" totalsRowShown="0">
+  <autoFilter ref="A1:I64"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -1878,8 +1902,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2180,23 +2204,47 @@
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43549</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
       <c r="A15" s="11">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="B15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43549</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
       <c r="A16" s="11">
@@ -2254,10 +2302,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2275,1205 +2323,1201 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>210</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E51" s="6" t="s">
         <v>214</v>
       </c>
+      <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3491,14 +3535,14 @@
         <v>218</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3512,16 +3556,18 @@
       <c r="D53" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="E53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="F53" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3535,16 +3581,18 @@
       <c r="D54" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="F54" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3555,63 +3603,63 @@
         <v>228</v>
       </c>
       <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
+      <c r="D55" s="6" t="s">
+        <v>229</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="6" t="s">
-        <v>236</v>
-      </c>
+      <c r="D57" s="7"/>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>237</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3627,14 +3675,14 @@
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
         <v>241</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3650,14 +3698,14 @@
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
         <v>245</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>42</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3671,18 +3719,16 @@
       <c r="D60" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>249</v>
-      </c>
+      <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3696,18 +3742,16 @@
       <c r="D61" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E61" s="6" t="s">
-        <v>253</v>
-      </c>
+      <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -3725,37 +3769,65 @@
         <v>257</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A63" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64"/>
-      <c r="I64"/>
+      <c r="A64" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65"/>
@@ -3888,6 +3960,28 @@
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76"/>
+    </row>
+    <row r="77" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+    </row>
+    <row r="78" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A78"/>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3914,71 +4008,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="288">
   <si>
     <t>变更履历</t>
   </si>
@@ -111,6 +111,9 @@
     <t>1、添加检查项KXS-04-005</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-01-023</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -385,6 +388,18 @@
   </si>
   <si>
     <t>eroad_id:[eroad_id],node_id:[node_id]</t>
+  </si>
+  <si>
+    <t>KXS-01-023</t>
+  </si>
+  <si>
+    <t>车道组与道路关联关系检查</t>
+  </si>
+  <si>
+    <t>车道组只能关联一条道路,不能关联多条道路</t>
+  </si>
+  <si>
+    <t>lane_group_id:[lane_group_id],road_id:[road_id]</t>
   </si>
   <si>
     <t>KXS-03-001</t>
@@ -872,10 +887,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -925,14 +940,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,36 +976,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -985,30 +985,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -1024,6 +1001,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1031,7 +1046,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1078,7 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1111,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1141,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,25 +1165,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1156,97 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1301,11 +1316,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1325,6 +1338,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1336,15 +1360,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1376,134 +1391,134 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1625,8 +1640,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I64" totalsRowShown="0">
-  <autoFilter ref="A1:I64"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I65" totalsRowShown="0">
+  <autoFilter ref="A1:I65"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -1902,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2250,12 +2265,24 @@
       <c r="A16" s="11">
         <v>14</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="B16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43550</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
       <c r="A17" s="11">
@@ -2302,10 +2329,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2323,1522 +2350,1536 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="F30" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G30" s="7"/>
-      <c r="H30" s="8" t="s">
-        <v>43</v>
+      <c r="H30" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>201</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G47" s="7"/>
-      <c r="H47" s="7" t="s">
+      <c r="H47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="E49" s="6"/>
+        <v>209</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>210</v>
+      </c>
       <c r="F49" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>218</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E55" s="6"/>
+        <v>230</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="F55" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
+      <c r="D57" s="6" t="s">
+        <v>238</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="6" t="s">
-        <v>240</v>
-      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E62" s="6" t="s">
         <v>257</v>
       </c>
+      <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65"/>
-      <c r="I65"/>
+      <c r="A65" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66"/>
@@ -3982,6 +4023,17 @@
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78"/>
+    </row>
+    <row r="79" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A79"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79"/>
+      <c r="F79"/>
+      <c r="G79"/>
+      <c r="H79"/>
+      <c r="I79"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4008,71 +4060,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="313">
   <si>
     <t>变更履历</t>
   </si>
@@ -114,6 +114,24 @@
     <t>1、添加检查项KXS-01-023</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-05-015,车道中心线交叉检查</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-05-016,车道中心线结点重复</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-04-006,道路结点重复检查</t>
+  </si>
+  <si>
+    <t>1、修改检查项KXS-05-012,修改错误描述,以及对孤立车道的检查逻辑,增加了对应急车道的判断以及前后DIVIDER连接关系判断,减少了一些冗余的错误输出</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-05-013</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-05-014</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -675,7 +693,19 @@
     <t>道路RANGE索引号检查</t>
   </si>
   <si>
-    <t>道路RANGE索引号超限,最大号超限，最小号非０</t>
+    <t>道路RANGE索引号超限,最大号超限，最小号非0</t>
+  </si>
+  <si>
+    <t>KXS-04-006</t>
+  </si>
+  <si>
+    <t>道路结点重复</t>
+  </si>
+  <si>
+    <t>道路前后结点重复,前后点xy坐标相同（z值可能相同）</t>
+  </si>
+  <si>
+    <t>[roadid],索引点[indx](x,y,z),索引点[indx](x,y,z)重复</t>
   </si>
   <si>
     <t>KXS-05-001</t>
@@ -789,10 +819,55 @@
     <t>车道拓扑错误</t>
   </si>
   <si>
-    <t>存在没有有进入车道和退出车道的车道</t>
+    <t>孤立车道,没有进入和退出车道连接,并且没有标注应急车道属性</t>
+  </si>
+  <si>
+    <t>[laneid]没有进入车道和退出车道</t>
   </si>
   <si>
     <t>JH_C_22</t>
+  </si>
+  <si>
+    <t>KXS-05-013</t>
+  </si>
+  <si>
+    <t>没有退出车道,divider拓扑存在,检查lane_connectivity是否正确</t>
+  </si>
+  <si>
+    <t>[laneid]没有退出车道</t>
+  </si>
+  <si>
+    <t>KXS-05-014</t>
+  </si>
+  <si>
+    <t>没有进入车道,divider拓扑存在,检查lane_connectivity是否正确</t>
+  </si>
+  <si>
+    <t>[laneid]没有进入车道</t>
+  </si>
+  <si>
+    <t>KXS-05-015</t>
+  </si>
+  <si>
+    <t>车道中心线交叉检查</t>
+  </si>
+  <si>
+    <t>检查同组内中心线与中心线是否存在交叉问题（组内有共点的中心线做检查）</t>
+  </si>
+  <si>
+    <t>[laneid]与[laneid]交叉</t>
+  </si>
+  <si>
+    <t>KXS-05-016</t>
+  </si>
+  <si>
+    <t>车道中心线结点重复</t>
+  </si>
+  <si>
+    <t>车道中心线前后结点重复,前后点xy坐标相同（z值可能相同）</t>
+  </si>
+  <si>
+    <t>[laneid],索引点[indx](x,y,z),索引点[indx](x,y,z)重复</t>
   </si>
   <si>
     <t>KXS-06-001</t>
@@ -888,9 +963,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -916,14 +991,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -931,16 +998,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -962,25 +1043,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -992,9 +1081,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1009,44 +1097,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,9 +1105,33 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1087,7 +1162,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +1204,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,13 +1252,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,121 +1336,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,35 +1365,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1340,10 +1391,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1364,15 +1413,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1387,153 +1427,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1640,8 +1715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I70" totalsRowShown="0">
+  <autoFilter ref="A1:I70"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -1915,10 +1990,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2288,34 +2363,202 @@
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="B17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13">
+        <v>43577</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
       <c r="A18" s="11">
         <v>16</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="13">
+        <v>43577</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
+      <c r="B19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13">
+        <v>43577</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="71" customHeight="1" spans="1:7">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="13">
+        <v>43578</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="13">
+        <v>43578</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="13">
+        <v>43578</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2329,10 +2572,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2350,1241 +2593,1241 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>49</v>
@@ -3594,47 +3837,47 @@
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>49</v>
@@ -3644,155 +3887,157 @@
         <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="6"/>
+        <v>240</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>241</v>
+      </c>
       <c r="F56" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
-        <v>235</v>
+        <v>14</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="6" t="s">
-        <v>245</v>
-      </c>
+      <c r="D59" s="7"/>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="6" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
@@ -3800,141 +4045,211 @@
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
+      <c r="A66" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67"/>
-      <c r="I67"/>
+      <c r="A67" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68"/>
-      <c r="I68"/>
+      <c r="A68" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69"/>
-      <c r="I69"/>
+      <c r="A69" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
+      <c r="A70" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71"/>
@@ -4034,6 +4349,61 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79"/>
+    </row>
+    <row r="80" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A80"/>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
+      <c r="H80"/>
+      <c r="I80"/>
+    </row>
+    <row r="81" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A81"/>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
+      <c r="H81"/>
+      <c r="I81"/>
+    </row>
+    <row r="82" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82"/>
+      <c r="I82"/>
+    </row>
+    <row r="83" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A83"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83"/>
+      <c r="F83"/>
+      <c r="G83"/>
+      <c r="H83"/>
+      <c r="I83"/>
+    </row>
+    <row r="84" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A84"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4060,71 +4430,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -822,7 +822,7 @@
     <t>孤立车道,没有进入和退出车道连接,并且没有标注应急车道属性</t>
   </si>
   <si>
-    <t>[laneid]没有进入车道和退出车道</t>
+    <t>[laneid]孤立车道,没有进入车道和退出车道</t>
   </si>
   <si>
     <t>JH_C_22</t>
@@ -962,8 +962,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -991,8 +991,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1007,6 +1008,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -1014,7 +1045,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1035,8 +1105,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1046,92 +1132,6 @@
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1156,7 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,7 +1174,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1180,37 +1270,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,13 +1300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,19 +1312,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1264,79 +1330,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,15 +1365,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1393,7 +1384,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1409,6 +1400,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1439,17 +1445,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,8 +1457,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,149 +1466,149 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2575,7 +2575,7 @@
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -999,25 +999,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1038,14 +1055,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,15 +1063,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,7 +1086,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,45 +1122,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,13 +1156,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,25 +1240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,67 +1252,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,7 +1264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1282,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,37 +1324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,17 +1365,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1385,6 +1394,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1404,52 +1439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,143 +1466,143 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2574,8 +2574,8 @@
   <sheetPr/>
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -4420,7 +4420,7 @@
   <dimension ref="B5:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="2"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="324">
   <si>
     <t>变更履历</t>
   </si>
@@ -132,6 +132,15 @@
     <t>1、添加检查项KXS-05-014</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-05-017</t>
+  </si>
+  <si>
+    <t>v2.0.8</t>
+  </si>
+  <si>
+    <t>1、添加检查项KXS-04-007</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -420,6 +429,18 @@
     <t>lane_group_id:[lane_group_id],road_id:[road_id]</t>
   </si>
   <si>
+    <t>KXS-01-024</t>
+  </si>
+  <si>
+    <t>结点坐标有效性检查，包含ROAD、LANE、DIVIDER</t>
+  </si>
+  <si>
+    <t>结点坐标有效性检查</t>
+  </si>
+  <si>
+    <t>road/lane/divider:[id],索引点[indx],索引点[indx]无效</t>
+  </si>
+  <si>
     <t>KXS-03-001</t>
   </si>
   <si>
@@ -706,6 +727,18 @@
   </si>
   <si>
     <t>[roadid],索引点[indx](x,y,z),索引点[indx](x,y,z)重复</t>
+  </si>
+  <si>
+    <t>KXS-04-007</t>
+  </si>
+  <si>
+    <t>道路结点平滑度检查</t>
+  </si>
+  <si>
+    <t>道路结点出现拐点，或者角度过大</t>
+  </si>
+  <si>
+    <t>[roadid],索引点[indx](x,y,z),索引点[indx](x,y,z)出现拐点</t>
   </si>
   <si>
     <t>KXS-05-001</t>
@@ -962,9 +995,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -999,14 +1032,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -1023,6 +1048,36 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
@@ -1031,16 +1086,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1055,7 +1102,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,17 +1132,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1093,14 +1147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1113,23 +1160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1156,7 +1189,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1168,31 +1273,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,13 +1321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,43 +1339,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1270,31 +1351,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,37 +1363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1365,76 +1398,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1457,6 +1425,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1466,143 +1499,143 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1715,8 +1748,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I70" totalsRowShown="0">
-  <autoFilter ref="A1:I70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I72" totalsRowShown="0">
+  <autoFilter ref="A1:I72"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -1993,7 +2026,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2498,22 +2531,50 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="13">
+        <v>43595</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="13">
+        <v>43596</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
@@ -2572,10 +2633,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2593,1685 +2654,1713 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>49</v>
+        <v>140</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>163</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G31" s="7"/>
-      <c r="H31" s="8" t="s">
-        <v>50</v>
+      <c r="H31" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>212</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G48" s="7"/>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E50" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>223</v>
+      </c>
       <c r="F50" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>229</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="6"/>
+        <v>247</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
-        <v>245</v>
+        <v>14</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>251</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>252</v>
+      </c>
       <c r="F58" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
-        <v>249</v>
+        <v>14</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="6" t="s">
+        <v>255</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C61" s="7"/>
-      <c r="D61" s="6" t="s">
-        <v>259</v>
-      </c>
+      <c r="D61" s="7"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>268</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>272</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>277</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-      <c r="I71"/>
+      <c r="A71" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72"/>
-      <c r="I72"/>
+      <c r="A72" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A73"/>
@@ -4404,6 +4493,28 @@
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84"/>
+    </row>
+    <row r="85" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A85"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+    </row>
+    <row r="86" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4430,71 +4541,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -132,7 +132,7 @@
     <t>1、添加检查项KXS-05-014</t>
   </si>
   <si>
-    <t>1、添加检查项KXS-05-017</t>
+    <t>1、添加检查项KXS-01-024</t>
   </si>
   <si>
     <t>v2.0.8</t>
@@ -2025,8 +2025,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2635,8 +2635,8 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -2025,8 +2025,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2635,7 +2635,7 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="325">
   <si>
     <t>变更履历</t>
   </si>
@@ -141,6 +141,9 @@
     <t>1、添加检查项KXS-04-007</t>
   </si>
   <si>
+    <t>1、修改检查项KXS-03-025，修改检查车道编号范围0~16为0~32，收费站处会超过16，这里做一下兼容</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -645,7 +648,7 @@
     <t>车道编号检查</t>
   </si>
   <si>
-    <t>HD_LANE表中存在无效车道号Lane_No不在(0~16)范围</t>
+    <t>HD_LANE表中存在无效车道号Lane_No不在(0~32)范围</t>
   </si>
   <si>
     <t>KXS-03-026</t>
@@ -995,9 +998,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1024,14 +1027,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -1039,39 +1034,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,17 +1052,39 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1108,9 +1095,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,31 +1149,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1160,9 +1163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1195,13 +1198,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,49 +1216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,55 +1246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,19 +1282,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1363,13 +1330,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,6 +1405,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1424,9 +1436,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1460,188 +1498,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2026,7 +2029,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2576,14 +2579,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
+    <row r="25" ht="45" customHeight="1" spans="1:7">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="13">
+        <v>43601</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="11"/>
@@ -2635,8 +2652,8 @@
   <sheetPr/>
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2654,1712 +2671,1712 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A72" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
@@ -4541,71 +4558,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="330">
   <si>
     <t>变更履历</t>
   </si>
@@ -144,6 +144,9 @@
     <t>1、修改检查项KXS-03-025，修改检查车道编号范围0~16为0~32，收费站处会超过16，这里做一下兼容</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-06-002</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -916,6 +919,18 @@
   </si>
   <si>
     <t>[定位目标标识] 未与道路关联</t>
+  </si>
+  <si>
+    <t>KXS-06-002</t>
+  </si>
+  <si>
+    <t>定位目标Point高度值检查</t>
+  </si>
+  <si>
+    <t>定位目标Point高度值应该在0~655米范围内</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[定位目标标识] </t>
   </si>
   <si>
     <t>KXS-07-001</t>
@@ -998,10 +1013,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1034,9 +1049,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,25 +1081,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1081,8 +1111,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,75 +1172,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,7 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1210,7 +1237,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1273,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,67 +1339,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1306,73 +1387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,26 +1449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1465,6 +1460,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1498,114 +1504,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1614,28 +1629,28 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1644,7 +1659,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1751,8 +1766,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I72" totalsRowShown="0">
-  <autoFilter ref="A1:I72"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I73" totalsRowShown="0">
+  <autoFilter ref="A1:I73"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2028,8 +2043,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2603,13 +2618,27 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="13">
+        <v>43609</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="11" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="11"/>
@@ -2650,10 +2679,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2671,1724 +2700,1738 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A72" s="6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73"/>
-      <c r="I73"/>
+      <c r="A73" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="74" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A74"/>
@@ -4532,6 +4575,17 @@
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86"/>
+    </row>
+    <row r="87" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4558,71 +4612,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="336">
   <si>
     <t>变更履历</t>
   </si>
@@ -147,6 +147,12 @@
     <t>1、添加检查项KXS-06-002</t>
   </si>
   <si>
+    <t>1、添加检查项KXS-04-008</t>
+  </si>
+  <si>
+    <t>v2.0.9</t>
+  </si>
+  <si>
     <t>检查项ID</t>
   </si>
   <si>
@@ -745,6 +751,18 @@
   </si>
   <si>
     <t>[roadid],索引点[indx](x,y,z),索引点[indx](x,y,z)出现拐点</t>
+  </si>
+  <si>
+    <t>KXS-04-008</t>
+  </si>
+  <si>
+    <t>道路形点间距检查</t>
+  </si>
+  <si>
+    <t>道路形态点间距过近</t>
+  </si>
+  <si>
+    <t>[roadid],索引点[indx](x,y,z),索引点[indx](x,y,z)距离过近</t>
   </si>
   <si>
     <t>KXS-05-001</t>
@@ -1013,10 +1031,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1051,17 +1069,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1072,25 +1082,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1104,16 +1098,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,37 +1128,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1172,21 +1168,43 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1207,37 +1225,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,25 +1261,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,7 +1297,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,55 +1375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1357,13 +1393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,12 +1412,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,11 +1440,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,6 +1460,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,6 +1495,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,47 +1531,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1517,110 +1541,110 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1629,41 +1653,41 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1687,19 +1711,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1766,8 +1791,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I73" totalsRowShown="0">
-  <autoFilter ref="A1:I73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I74" totalsRowShown="0">
+  <autoFilter ref="A1:I74"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2043,8 +2068,8 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2055,617 +2080,631 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="11">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>43493</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="11">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>43514</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="11">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="14">
         <v>43515</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="11">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>43516</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="11">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>43517</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="14">
         <v>43518</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>43528</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="C10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>43529</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="12" t="s">
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="14">
         <v>43529</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>43546</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="12" t="s">
+      <c r="C13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>43546</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="12" t="s">
+      <c r="C14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="14">
         <v>43549</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="12" t="s">
+      <c r="C15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>43549</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="11">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="12">
+        <v>14</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="12" t="s">
+      <c r="C16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>43550</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="12" t="s">
+      <c r="C17" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="14">
         <v>43577</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="11">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="12" t="s">
+      <c r="C18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="14">
         <v>43577</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="11">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <v>43577</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" ht="71" customHeight="1" spans="1:7">
-      <c r="A20" s="11">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="14">
         <v>43578</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="12" t="s">
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="14">
         <v>43578</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="11">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="C22" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="14">
         <v>43578</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="11">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="C23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="14">
         <v>43595</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="11">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="14">
         <v>43596</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="45" customHeight="1" spans="1:7">
-      <c r="A25" s="11">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="14">
         <v>43601</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="11">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="C26" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="14">
         <v>43609</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
+    <row r="27" s="9" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="12">
+        <v>25</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="14">
+        <v>43626</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2679,10 +2718,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A56" sqref="$A56:$XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2700,1749 +2739,1763 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A4" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A5" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A6" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A7" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A17" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A18" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A19" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A20" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A21" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A22" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A37" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A41" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A42" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A43" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A44" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A45" s="6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A46" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A47" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A48" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8" t="s">
         <v>14</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A49" s="6" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A50" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A51" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I51" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A52" s="6" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="6" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I52" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A53" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I53" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A54" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I54" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A55" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I55" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A56" s="6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="6" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A57" s="6" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I57" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A58" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I58" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A59" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="E59" s="6"/>
+        <v>259</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>260</v>
+      </c>
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="7" t="s">
-        <v>258</v>
+        <v>14</v>
       </c>
       <c r="I59" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A60" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I60" s="7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A61" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="I61" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A62" s="6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C62" s="7"/>
-      <c r="D62" s="6" t="s">
-        <v>268</v>
-      </c>
+      <c r="D62" s="7"/>
       <c r="E62" s="6"/>
       <c r="F62" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A63" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A64" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="I64" s="7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A65" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>281</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I65" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A66" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="7" t="s">
-        <v>14</v>
+        <v>288</v>
       </c>
       <c r="I66" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A67" s="6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I67" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A68" s="6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A69" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I69" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A70" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I70" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A71" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A72" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A73" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="7" t="s">
         <v>14</v>
       </c>
       <c r="I73" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A74" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74"/>
-      <c r="I74"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="75" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A75"/>
@@ -4586,6 +4639,17 @@
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87"/>
+    </row>
+    <row r="88" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A88"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4612,71 +4676,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
     <sheet name="全部检查项" sheetId="12" r:id="rId2"/>
-    <sheet name="参考原则" sheetId="10" r:id="rId3"/>
+    <sheet name="后自动化１" sheetId="14" r:id="rId3"/>
+    <sheet name="参考原则" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="339">
   <si>
     <t>变更履历</t>
   </si>
@@ -451,6 +452,15 @@
   </si>
   <si>
     <t>road/lane/divider:[id],索引点[indx],索引点[indx]无效</t>
+  </si>
+  <si>
+    <t>KXS-01-025</t>
+  </si>
+  <si>
+    <t>字段关系检查</t>
+  </si>
+  <si>
+    <t>[model_name]字段[field]在[model_name]中不存在</t>
   </si>
   <si>
     <t>KXS-03-001</t>
@@ -1031,15 +1041,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1075,13 +1093,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1091,7 +1102,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1105,8 +1131,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,21 +1179,27 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
@@ -1153,58 +1216,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1219,8 +1237,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor theme="4" tint="0.599993896298105"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
       </patternFill>
     </fill>
     <fill>
@@ -1243,25 +1273,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,19 +1309,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,19 +1333,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1327,61 +1369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,24 +1399,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1436,6 +1466,82 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1464,26 +1570,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1499,17 +1585,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1532,8 +1614,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1541,153 +1647,153 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,6 +1805,37 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1711,20 +1848,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1791,8 +1928,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I74" totalsRowShown="0">
-  <autoFilter ref="A1:I74"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I75" totalsRowShown="0">
+  <autoFilter ref="A1:I75"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2068,7 +2205,7 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -2080,631 +2217,631 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="12">
+      <c r="A3" s="23">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="25">
         <v>43493</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="12">
+      <c r="A4" s="23">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="25">
         <v>43514</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="12">
+      <c r="A5" s="23">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="25">
         <v>43515</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="12">
+      <c r="A6" s="23">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="25">
         <v>43516</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="12">
+      <c r="A7" s="23">
         <v>5</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13" t="s">
+      <c r="C7" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="25">
         <v>43517</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="12">
+      <c r="A8" s="23">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="25">
         <v>43518</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="12">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="25">
         <v>43528</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="12">
+      <c r="A10" s="23">
         <v>8</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="25">
         <v>43529</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="12">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="25">
         <v>43529</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="12">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="25">
         <v>43546</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="12">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="25">
         <v>43546</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="12">
+      <c r="A14" s="23">
         <v>12</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="25">
         <v>43549</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="12">
+      <c r="A15" s="23">
         <v>13</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="25">
         <v>43549</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="12">
-        <v>14</v>
-      </c>
-      <c r="B16" s="13" t="s">
+      <c r="A16" s="23">
+        <v>14</v>
+      </c>
+      <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="25">
         <v>43550</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:7">
-      <c r="A17" s="12">
+      <c r="A17" s="23">
         <v>15</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="13" t="s">
+      <c r="C17" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="25">
         <v>43577</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="12">
+      <c r="A18" s="23">
         <v>16</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13" t="s">
+      <c r="C18" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="25">
         <v>43577</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:7">
-      <c r="A19" s="12">
+      <c r="A19" s="23">
         <v>17</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="13" t="s">
+      <c r="C19" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="25">
         <v>43577</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" ht="71" customHeight="1" spans="1:7">
-      <c r="A20" s="12">
+      <c r="A20" s="23">
         <v>18</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="25">
         <v>43578</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:7">
-      <c r="A21" s="12">
+      <c r="A21" s="23">
         <v>19</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="25">
         <v>43578</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:7">
-      <c r="A22" s="12">
+      <c r="A22" s="23">
         <v>20</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="25">
         <v>43578</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:7">
-      <c r="A23" s="12">
+      <c r="A23" s="23">
         <v>21</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="25">
         <v>43595</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:7">
-      <c r="A24" s="12">
+      <c r="A24" s="23">
         <v>22</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="25">
         <v>43596</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" ht="45" customHeight="1" spans="1:7">
-      <c r="A25" s="12">
+      <c r="A25" s="23">
         <v>23</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="25">
         <v>43601</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="1:7">
-      <c r="A26" s="12">
+      <c r="A26" s="23">
         <v>24</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="25">
         <v>43609</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" s="9" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="12">
+    <row r="27" s="20" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="23">
         <v>25</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="C27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="25">
         <v>43626</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="23" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2718,10 +2855,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A56" sqref="$A56:$XFD56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -2738,28 +2875,28 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="1" ht="18" customHeight="1" spans="1:9">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2767,1746 +2904,1760 @@
       </c>
     </row>
     <row r="2" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="18"/>
+      <c r="D4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="18"/>
+      <c r="H4" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="18"/>
+      <c r="H5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="18"/>
+      <c r="H6" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="18"/>
+      <c r="D7" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="18"/>
+      <c r="H7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="68" customHeight="1" spans="1:9">
+      <c r="A8" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="17"/>
+      <c r="F8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="18"/>
+      <c r="H11" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6" t="s">
+      <c r="C13" s="18"/>
+      <c r="D13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="18"/>
+      <c r="H14" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A15" s="6" t="s">
+      <c r="I14" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" s="4" customFormat="1" ht="107" customHeight="1" spans="1:9">
+      <c r="A15" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8" t="s">
+      <c r="G17" s="18"/>
+      <c r="H17" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="18"/>
+      <c r="D18" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="17"/>
+      <c r="F18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8" t="s">
+      <c r="G18" s="18"/>
+      <c r="H18" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="7" t="s">
+      <c r="G19" s="18"/>
+      <c r="H19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="18"/>
+      <c r="D20" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="18"/>
+      <c r="D21" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="7" t="s">
+      <c r="E21" s="17"/>
+      <c r="F21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="7" t="s">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="7" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6" t="s">
+      <c r="C23" s="18"/>
+      <c r="D23" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="7" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="7" t="s">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7" t="s">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="18"/>
+      <c r="D26" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A27" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="B27" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A27" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="G27" s="18"/>
+      <c r="H27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A28" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="B28" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A28" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="G28" s="18"/>
+      <c r="H28" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A29" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="B29" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A29" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="G29" s="18"/>
+      <c r="H29" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A30" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="B30" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A30" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A31" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="B31" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A31" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="G31" s="18"/>
+      <c r="H31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A32" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="B32" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A32" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="18"/>
+      <c r="H32" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A33" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A33" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7" t="s">
+      <c r="I33" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A34" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8" t="s">
+      <c r="G34" s="18"/>
+      <c r="H34" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A34" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7" t="s">
+      <c r="I34" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A35" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="8" t="s">
+      <c r="G35" s="18"/>
+      <c r="H35" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A35" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7" t="s">
+      <c r="I35" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A36" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36" s="18"/>
+      <c r="D36" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="8" t="s">
+      <c r="G36" s="18"/>
+      <c r="H36" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7" t="s">
+      <c r="I36" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A37" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="8" t="s">
+      <c r="G37" s="18"/>
+      <c r="H37" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A37" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7" t="s">
+      <c r="I37" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A38" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="8" t="s">
+      <c r="G38" s="18"/>
+      <c r="H38" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A38" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7" t="s">
+      <c r="I38" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A39" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C39" s="18"/>
+      <c r="D39" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="8" t="s">
+      <c r="G39" s="18"/>
+      <c r="H39" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A39" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7" t="s">
+      <c r="I39" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A40" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="8" t="s">
+      <c r="G40" s="18"/>
+      <c r="H40" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A40" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7" t="s">
+      <c r="I40" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A41" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8" t="s">
+      <c r="G41" s="18"/>
+      <c r="H41" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A41" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7" t="s">
+      <c r="I41" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A42" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8" t="s">
+      <c r="G42" s="18"/>
+      <c r="H42" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A42" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7" t="s">
+      <c r="I42" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A43" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="8" t="s">
+      <c r="G43" s="18"/>
+      <c r="H43" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A43" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7" t="s">
+      <c r="I43" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A44" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8" t="s">
+      <c r="G44" s="18"/>
+      <c r="H44" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A44" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7" t="s">
+      <c r="I44" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A45" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="8" t="s">
+      <c r="G45" s="18"/>
+      <c r="H45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A45" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7" t="s">
+      <c r="I45" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A46" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="8" t="s">
+      <c r="G46" s="18"/>
+      <c r="H46" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A46" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7" t="s">
+      <c r="I46" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A47" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="8" t="s">
+      <c r="G47" s="18"/>
+      <c r="H47" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A47" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7" t="s">
+      <c r="I47" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A48" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="8" t="s">
+      <c r="G48" s="18"/>
+      <c r="H48" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A48" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7" t="s">
+      <c r="I48" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A49" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G48" s="7"/>
-      <c r="H48" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A49" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="G49" s="18"/>
+      <c r="H49" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A50" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="B50" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="F50" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A50" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="G50" s="18"/>
+      <c r="H50" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A51" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="B51" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C51" s="18"/>
+      <c r="D51" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A51" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A52" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="C52" s="18"/>
+      <c r="D52" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A52" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="18"/>
+      <c r="H52" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A53" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A53" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="7" t="s">
+      <c r="G53" s="18"/>
+      <c r="H53" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A54" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A54" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="G54" s="18"/>
+      <c r="H54" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A55" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="B55" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="18"/>
+      <c r="D55" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F55" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A55" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="G55" s="18"/>
+      <c r="H55" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A56" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="B56" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C56" s="18"/>
+      <c r="D56" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A56" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="G56" s="18"/>
+      <c r="H56" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A57" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="B57" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="18"/>
+      <c r="D57" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="F57" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A57" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="G57" s="18"/>
+      <c r="H57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A58" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="B58" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="18"/>
+      <c r="D58" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="F58" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A58" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="G58" s="18"/>
+      <c r="H58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A59" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="B59" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="F59" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A59" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" s="6" t="s">
+      <c r="G59" s="18"/>
+      <c r="H59" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A60" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="B60" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="C60" s="18"/>
+      <c r="D60" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F60" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A60" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="7" t="s">
+      <c r="G60" s="18"/>
+      <c r="H60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A61" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="18"/>
+      <c r="D61" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="I60" s="7" t="s">
+      <c r="G61" s="18"/>
+      <c r="H61" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="I61" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A61" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="7" t="s">
+    <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A62" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="C62" s="18"/>
+      <c r="D62" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A62" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="7" t="s">
+      <c r="G62" s="18"/>
+      <c r="H62" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="I62" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A63" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A63" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="6" t="s">
+      <c r="G63" s="18"/>
+      <c r="H63" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="E63" s="6"/>
-      <c r="F63" s="7" t="s">
+      <c r="I63" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A64" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C64" s="18"/>
+      <c r="D64" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="I63" s="7" t="s">
+      <c r="G64" s="18"/>
+      <c r="H64" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="I64" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A64" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="7" t="s">
+    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A65" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="C65" s="18"/>
+      <c r="D65" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="I64" s="7" t="s">
+      <c r="G65" s="18"/>
+      <c r="H65" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="I65" s="18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A65" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7" t="s">
+    <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A66" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A66" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="6" t="s">
+      <c r="G66" s="18"/>
+      <c r="H66" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="I66" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A67" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="B67" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E67" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="F67" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7" t="s">
+      <c r="G67" s="18"/>
+      <c r="H67" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="I67" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A68" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B68" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A67" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="F67" s="7" t="s">
+      <c r="C68" s="18"/>
+      <c r="D68" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A68" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="F68" s="7" t="s">
+      <c r="G68" s="18"/>
+      <c r="H68" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A69" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="17" t="s">
+        <v>296</v>
+      </c>
+      <c r="E69" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="F69" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A69" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E69" s="6" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A70" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="B70" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C70" s="18"/>
+      <c r="D70" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="F70" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="70" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A70" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C70" s="7"/>
-      <c r="D70" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="6" t="s">
+      <c r="G70" s="18"/>
+      <c r="H70" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A71" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="B71" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="18"/>
+      <c r="D71" s="17" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="71" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A71" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A72" s="17" t="s">
         <v>306</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="B72" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="72" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A72" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A73" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="B73" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="E73" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F73" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="73" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A73" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E73" s="6" t="s">
+      <c r="G73" s="18"/>
+      <c r="H73" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A74" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="B74" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="18"/>
+      <c r="D74" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="E74" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="F74" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A74" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="E74" s="6" t="s">
+      <c r="G74" s="18"/>
+      <c r="H74" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A75" s="17" t="s">
         <v>318</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="B75" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="F75" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="76" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A76"/>
@@ -4651,6 +4802,17 @@
       <c r="H88"/>
       <c r="I88"/>
     </row>
+    <row r="89" s="4" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -4661,6 +4823,465 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="5" max="5" width="63.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A6" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A7" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A11" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="14"/>
+      <c r="H11" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" s="4" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A13" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" ht="43.5" spans="1:9">
+      <c r="A14" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:9">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" ht="15" spans="1:9">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" ht="15" spans="1:9">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" ht="15" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" ht="15" spans="1:9">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" ht="15" spans="1:9">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" ht="15" spans="1:9">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" ht="15" spans="1:9">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:I23">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:C14"/>
@@ -4676,71 +5297,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="339">
   <si>
     <t>变更履历</t>
   </si>
@@ -1041,10 +1041,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1078,6 +1078,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -1085,93 +1093,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1187,21 +1110,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,8 +1146,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1267,7 +1267,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,19 +1357,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1303,67 +1417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1375,73 +1435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,6 +1546,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1563,9 +1581,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1581,17 +1616,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1614,32 +1638,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,149 +1647,149 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2857,8 +2857,8 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD6"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A29" sqref="$A29:$XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -4828,7 +4828,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5148,7 +5148,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" ht="43.5" spans="1:9">
+    <row r="14" ht="29.25" spans="1:9">
       <c r="A14" s="11" t="s">
         <v>160</v>
       </c>
@@ -5173,16 +5173,30 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" ht="15" spans="1:9">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+    <row r="15" ht="33" customHeight="1" spans="1:9">
+      <c r="A15" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>157</v>
+      </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="D15" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" ht="15" spans="1:9">
       <c r="A16" s="11"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -1041,9 +1041,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -1078,14 +1078,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
@@ -1093,8 +1085,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,9 +1124,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,40 +1169,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1177,24 +1199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1205,20 +1219,6 @@
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1267,7 +1267,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1279,13 +1369,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,67 +1423,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,79 +1441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,24 +1546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1575,47 +1557,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1638,8 +1579,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,149 +1647,149 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4828,7 +4828,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/doc/交换规格检查项文档.xlsx
+++ b/doc/交换规格检查项文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="27720" windowHeight="13170" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="变更说明" sheetId="13" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="354">
   <si>
     <t>变更履历</t>
   </si>
@@ -983,6 +983,54 @@
   </si>
   <si>
     <t>[road_id]属性点索引index与拟合曲线属性点距离distance</t>
+  </si>
+  <si>
+    <t>KXS-07-003</t>
+  </si>
+  <si>
+    <t>ADAS_NODE点完备性检查</t>
+  </si>
+  <si>
+    <t>E1：道路节点周围1米内找不到ADAS_NODE
+E2：道路起点和终点之处缺失ADAS_NODE</t>
+  </si>
+  <si>
+    <t>[road_id]属性点索引[index]周围1米内找不到ADAS_NODE</t>
+  </si>
+  <si>
+    <t>KXS-07-004</t>
+  </si>
+  <si>
+    <t>ADAS_NODE航向角检查</t>
+  </si>
+  <si>
+    <t>ADAS_NODE的航向角错误，应为xxxx（xxx为计算出来的航向角）</t>
+  </si>
+  <si>
+    <t>KXS-07-005</t>
+  </si>
+  <si>
+    <t>ADAS_NODE曲率值域检查</t>
+  </si>
+  <si>
+    <t>E1：ADAS_NODE曲率不能为空
+E2：曲率的绝对值不能大于0.4</t>
+  </si>
+  <si>
+    <t>KXS-07-006</t>
+  </si>
+  <si>
+    <t>ADAS_NODE坡度值域检查</t>
+  </si>
+  <si>
+    <t>E1：一条弯曲的ROAD的ADAS_NODE曲率连续为0</t>
+  </si>
+  <si>
+    <t>KXS-07-007</t>
+  </si>
+  <si>
+    <t>E1：ADAS_NODE的坡度不能为空
+E2：ADAS_NODE的坡度的绝对值不能超过xxx（xxx为设定的阈值）</t>
   </si>
   <si>
     <t xml:space="preserve">质检项编号原则："KXS-" + 模块编号 + “-” + 用例编号 </t>
@@ -1041,10 +1089,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1086,10 +1134,56 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,15 +1196,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,14 +1241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,37 +1257,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,37 +1267,6 @@
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1267,13 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1285,25 +1345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1321,7 +1369,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1333,115 +1483,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,17 +1594,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1572,30 +1629,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,11 +1668,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1647,140 +1695,140 @@
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1789,7 +1837,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1928,8 +1976,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I75" totalsRowShown="0">
-  <autoFilter ref="A1:I75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A1:I80" totalsRowShown="0">
+  <autoFilter ref="A1:I80"/>
   <tableColumns count="9">
     <tableColumn id="1" name="检查项ID"/>
     <tableColumn id="2" name="检查项名称"/>
@@ -2857,8 +2905,8 @@
   <sheetPr/>
   <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A29" sqref="$A29:$XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="36" customHeight="1"/>
@@ -4660,59 +4708,121 @@
       </c>
     </row>
     <row r="76" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76"/>
-      <c r="I76"/>
+      <c r="A76" s="17" t="s">
+        <v>322</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="E76" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="F76" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="77" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77"/>
-      <c r="I77"/>
+      <c r="A77" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78"/>
-      <c r="I78"/>
+      <c r="A78" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="E78" s="17"/>
+      <c r="F78" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="79" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79"/>
-      <c r="I79"/>
+      <c r="A79" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E79" s="17"/>
+      <c r="F79" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="80" s="4" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
+      <c r="A80" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="E80" s="17"/>
+      <c r="F80" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="81" s="4" customFormat="1" customHeight="1" spans="1:9">
       <c r="A81"/>
@@ -4827,7 +4937,7 @@
   <sheetPr/>
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -5311,71 +5421,71 @@
   <sheetData>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="1" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
